--- a/data/Dataset/PrBlank.xlsx
+++ b/data/Dataset/PrBlank.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
   <si>
     <t>U-233</t>
   </si>
@@ -39,72 +39,13 @@
   <si>
     <t>Th-229</t>
   </si>
-  <si>
-    <t>006Gblk002.exp</t>
-  </si>
-  <si>
-    <t>009Gblk002.exp</t>
-  </si>
-  <si>
-    <t>012Gblk002.exp</t>
-  </si>
-  <si>
-    <t>015Gblk002.exp</t>
-  </si>
-  <si>
-    <t>018Gblk002.exp</t>
-  </si>
-  <si>
-    <t>021Gblk002.exp</t>
-  </si>
-  <si>
-    <t>024Gblk002.exp</t>
-  </si>
-  <si>
-    <t>027Gblk002.exp</t>
-  </si>
-  <si>
-    <t>030Gblk002.exp</t>
-  </si>
-  <si>
-    <t>033Gblk002.exp</t>
-  </si>
-  <si>
-    <t>036Gblk002.exp</t>
-  </si>
-  <si>
-    <t>039Gblk002.exp</t>
-  </si>
-  <si>
-    <t>042Gblk002.exp</t>
-  </si>
-  <si>
-    <t>045Gblk002.exp</t>
-  </si>
-  <si>
-    <t>048Gblk002.exp</t>
-  </si>
-  <si>
-    <t>051Gblk002.exp</t>
-  </si>
-  <si>
-    <t>054Gblk002.exp</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -120,7 +61,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -128,30 +69,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,528 +369,487 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" customWidth="1"/>
+    <col min="7" max="7" width="23.7109375" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1.390151598542329</v>
       </c>
       <c r="C2">
-        <v>1.390151598542329</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>8.482760359086435E-07</v>
       </c>
       <c r="E2">
-        <v>8.482760359086435E-07</v>
+        <v>0.0005732472283604739</v>
       </c>
       <c r="F2">
-        <v>0.0005732472283604739</v>
+        <v>1.168789879475595</v>
       </c>
       <c r="G2">
-        <v>1.168789879475595</v>
+        <v>3.774136365581478E-06</v>
       </c>
       <c r="H2">
-        <v>3.774136365581478E-06</v>
-      </c>
-      <c r="I2">
         <v>5.684569317789804</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>3.028228397661313</v>
       </c>
       <c r="C3">
-        <v>3.028228397661313</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.0004891563736042184</v>
       </c>
       <c r="F3">
-        <v>0.0004891563736042184</v>
+        <v>1.633649489072413</v>
       </c>
       <c r="G3">
-        <v>1.633649489072413</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
         <v>4.356398828592789</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>7.309138410676169E-06</v>
       </c>
       <c r="B4">
-        <v>7.309138410676169E-06</v>
+        <v>3.559496568513934</v>
       </c>
       <c r="C4">
-        <v>3.559496568513934</v>
+        <v>5.324555952976533E-06</v>
       </c>
       <c r="D4">
-        <v>5.324555952976533E-06</v>
+        <v>2.693668081265566E-06</v>
       </c>
       <c r="E4">
-        <v>2.693668081265566E-06</v>
+        <v>0.0007249202970786803</v>
       </c>
       <c r="F4">
-        <v>0.0007249202970786803</v>
+        <v>1.744330347866906</v>
       </c>
       <c r="G4">
-        <v>1.744330347866906</v>
+        <v>2.656958797748801E-06</v>
       </c>
       <c r="H4">
-        <v>2.656958797748801E-06</v>
-      </c>
-      <c r="I4">
         <v>5.463207575923512</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1.434423940835706</v>
       </c>
       <c r="C5">
+        <v>4.959698416653228E-06</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0.0005705200253688899</v>
+      </c>
+      <c r="F5">
+        <v>1.766466530518926</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>7.278374012744145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>9.37198404025424E-06</v>
+      </c>
+      <c r="B6">
+        <v>1.744330360533326</v>
+      </c>
+      <c r="C6">
+        <v>3.885479731303243E-06</v>
+      </c>
+      <c r="D6">
+        <v>4.649686385353373E-06</v>
+      </c>
+      <c r="E6">
+        <v>0.0008338540444951962</v>
+      </c>
+      <c r="F6">
+        <v>0.2479251298412935</v>
+      </c>
+      <c r="G6">
+        <v>2.726779040731372E-06</v>
+      </c>
+      <c r="H6">
+        <v>7.41119105229069</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>5.356663857851545E-07</v>
+      </c>
+      <c r="B7">
+        <v>2.496960226808694</v>
+      </c>
+      <c r="C7">
+        <v>7.028566677265738E-06</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0.0006413249665674365</v>
+      </c>
+      <c r="F7">
+        <v>0.6021038732548741</v>
+      </c>
+      <c r="G7">
+        <v>1.422188006642741E-06</v>
+      </c>
+      <c r="H7">
+        <v>4.356398815926368</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>5.41893520069744</v>
+      </c>
+      <c r="C8">
+        <v>4.57019696445297E-06</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0.0008608273070477916</v>
+      </c>
+      <c r="F8">
+        <v>0.9474281582977904</v>
+      </c>
+      <c r="G8">
+        <v>7.264065079851193E-07</v>
+      </c>
+      <c r="H8">
+        <v>2.364143189795429</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0.9031558130489159</v>
+      </c>
+      <c r="C9">
+        <v>5.782099072102162E-06</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0.0006353247814589224</v>
+      </c>
+      <c r="F9">
+        <v>0.5047047229087119</v>
+      </c>
+      <c r="G9">
+        <v>1.412388257050888E-06</v>
+      </c>
+      <c r="H9">
+        <v>2.098509109013473</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>3.293862509687107</v>
+      </c>
+      <c r="C10">
+        <v>1.098978123287416E-06</v>
+      </c>
+      <c r="D10">
+        <v>3.745634832429767E-06</v>
+      </c>
+      <c r="E10">
+        <v>0.0007506550307330886</v>
+      </c>
+      <c r="F10">
+        <v>0.513559187401479</v>
+      </c>
+      <c r="G10">
+        <v>4.501920571453992E-08</v>
+      </c>
+      <c r="H10">
+        <v>17.32820019134352</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
         <v>1.434423940835706</v>
       </c>
-      <c r="D5">
-        <v>4.959698416653228E-06</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.0005705200253688899</v>
-      </c>
-      <c r="G5">
-        <v>1.766466530518926</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>7.278374012744145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6">
-        <v>9.37198404025424E-06</v>
-      </c>
-      <c r="C6">
-        <v>1.744330360533326</v>
-      </c>
-      <c r="D6">
-        <v>3.885479731303243E-06</v>
-      </c>
-      <c r="E6">
-        <v>4.649686385353373E-06</v>
-      </c>
-      <c r="F6">
-        <v>0.0008338540444951962</v>
-      </c>
-      <c r="G6">
-        <v>0.2479251298412935</v>
-      </c>
-      <c r="H6">
-        <v>2.726779040731372E-06</v>
-      </c>
-      <c r="I6">
-        <v>7.41119105229069</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7">
-        <v>5.356663857851545E-07</v>
-      </c>
-      <c r="C7">
-        <v>2.496960226808694</v>
-      </c>
-      <c r="D7">
-        <v>7.028566677265738E-06</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0.0006413249665674365</v>
-      </c>
-      <c r="G7">
-        <v>0.6021038732548741</v>
-      </c>
-      <c r="H7">
-        <v>1.422188006642741E-06</v>
-      </c>
-      <c r="I7">
-        <v>4.356398815926368</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>5.41893520069744</v>
-      </c>
-      <c r="D8">
-        <v>4.57019696445297E-06</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.0008608273070477916</v>
-      </c>
-      <c r="G8">
-        <v>0.9474281582977904</v>
-      </c>
-      <c r="H8">
-        <v>7.264065079851193E-07</v>
-      </c>
-      <c r="I8">
-        <v>2.364143189795429</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0.9031558130489159</v>
-      </c>
-      <c r="D9">
-        <v>5.782099072102162E-06</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0.0006353247814589224</v>
-      </c>
-      <c r="G9">
-        <v>0.5047047229087119</v>
-      </c>
-      <c r="H9">
-        <v>1.412388257050888E-06</v>
-      </c>
-      <c r="I9">
-        <v>2.098509109013473</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>3.293862509687107</v>
-      </c>
-      <c r="D10">
-        <v>1.098978123287416E-06</v>
-      </c>
-      <c r="E10">
-        <v>3.745634832429767E-06</v>
-      </c>
-      <c r="F10">
-        <v>0.0007506550307330886</v>
-      </c>
-      <c r="G10">
-        <v>0.513559187401479</v>
-      </c>
-      <c r="H10">
-        <v>4.501920571453992E-08</v>
-      </c>
-      <c r="I10">
-        <v>17.32820019134352</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
       <c r="C11">
-        <v>1.434423940835706</v>
+        <v>4.42609368741729E-06</v>
       </c>
       <c r="D11">
-        <v>4.42609368741729E-06</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.0005282265465567081</v>
       </c>
       <c r="F11">
-        <v>0.0005282265465567081</v>
+        <v>1.832875036253585</v>
       </c>
       <c r="G11">
-        <v>1.832875036253585</v>
+        <v>4.238423236818995E-07</v>
       </c>
       <c r="H11">
-        <v>4.238423236818995E-07</v>
-      </c>
-      <c r="I11">
         <v>7.234101683117192</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="s">
-        <v>18</v>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>6.683047054145744E-07</v>
       </c>
       <c r="B12">
-        <v>6.683047054145744E-07</v>
+        <v>5.640297201803183</v>
       </c>
       <c r="C12">
-        <v>5.640297201803183</v>
+        <v>1.928283995929663E-05</v>
       </c>
       <c r="D12">
-        <v>1.928283995929663E-05</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.0009415529476768771</v>
       </c>
       <c r="F12">
-        <v>0.0009415529476768771</v>
+        <v>2.364143184306647</v>
       </c>
       <c r="G12">
-        <v>2.364143184306647</v>
+        <v>1.441787506800287E-06</v>
       </c>
       <c r="H12">
-        <v>1.441787506800287E-06</v>
-      </c>
-      <c r="I12">
         <v>16.44275271384357</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="s">
-        <v>19</v>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>3.042839266714679E-06</v>
       </c>
       <c r="B13">
-        <v>3.042839266714679E-06</v>
+        <v>4.090764838164646</v>
       </c>
       <c r="C13">
-        <v>4.090764838164646</v>
+        <v>2.620792311095885E-06</v>
       </c>
       <c r="D13">
-        <v>2.620792311095885E-06</v>
+        <v>6.592445150747521E-06</v>
       </c>
       <c r="E13">
-        <v>6.592445150747521E-06</v>
+        <v>0.0008826033877387252</v>
       </c>
       <c r="F13">
-        <v>0.0008826033877387252</v>
+        <v>1.89928355423245</v>
       </c>
       <c r="G13">
-        <v>1.89928355423245</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
         <v>9.004995834221138</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="s">
-        <v>20</v>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>5.700455650632037E-06</v>
       </c>
       <c r="B14">
-        <v>5.700455650632037E-06</v>
+        <v>3.161045475207128</v>
       </c>
       <c r="C14">
-        <v>3.161045475207128</v>
+        <v>1.279576468499911E-05</v>
       </c>
       <c r="D14">
-        <v>1.279576468499911E-05</v>
+        <v>7.241909295371081E-06</v>
       </c>
       <c r="E14">
-        <v>7.241909295371081E-06</v>
+        <v>0.0008347012523054211</v>
       </c>
       <c r="F14">
-        <v>0.0008347012523054211</v>
+        <v>2.696185773778759</v>
       </c>
       <c r="G14">
-        <v>2.696185773778759</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
         <v>11.83842681848758</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="1" t="s">
-        <v>21</v>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>1.414577539585201E-05</v>
       </c>
       <c r="B15">
-        <v>1.414577539585201E-05</v>
+        <v>3.338134818203362</v>
       </c>
       <c r="C15">
-        <v>3.338134818203362</v>
+        <v>3.270425577317515E-05</v>
       </c>
       <c r="D15">
-        <v>3.270425577317515E-05</v>
+        <v>1.578186578188179E-05</v>
       </c>
       <c r="E15">
-        <v>1.578186578188179E-05</v>
+        <v>0.0006846100233895514</v>
       </c>
       <c r="F15">
-        <v>0.0006846100233895514</v>
+        <v>1.766466521652432</v>
       </c>
       <c r="G15">
-        <v>1.766466521652432</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
         <v>7.012739893118493</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="1" t="s">
-        <v>22</v>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>4.933608945252415E-06</v>
       </c>
       <c r="B16">
-        <v>4.933608945252415E-06</v>
+        <v>1.567240981226684</v>
       </c>
       <c r="C16">
-        <v>1.567240981226684</v>
+        <v>4.648189012598453E-06</v>
       </c>
       <c r="D16">
-        <v>4.648189012598453E-06</v>
+        <v>4.917066723310848E-06</v>
       </c>
       <c r="E16">
-        <v>4.917066723310848E-06</v>
+        <v>0.0006244162249392931</v>
       </c>
       <c r="F16">
-        <v>0.0006244162249392931</v>
+        <v>2.297734666538889</v>
       </c>
       <c r="G16">
-        <v>2.297734666538889</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
         <v>16.44275268344414</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="1" t="s">
-        <v>23</v>
+    <row r="17" spans="1:8">
+      <c r="A17">
+        <v>9.294471413521952E-06</v>
       </c>
       <c r="B17">
-        <v>9.294471413521952E-06</v>
+        <v>4.223581842245212</v>
       </c>
       <c r="C17">
-        <v>4.223581842245212</v>
+        <v>7.499611930380762E-06</v>
       </c>
       <c r="D17">
-        <v>7.499611930380762E-06</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>0.0004659524656921265</v>
       </c>
       <c r="F17">
-        <v>0.0004659524656921265</v>
+        <v>1.124517528315725</v>
       </c>
       <c r="G17">
-        <v>1.124517528315725</v>
+        <v>1.394014658577052E-06</v>
       </c>
       <c r="H17">
-        <v>1.394014658577052E-06</v>
-      </c>
-      <c r="I17">
         <v>7.234101649340063</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="1" t="s">
-        <v>24</v>
+    <row r="18" spans="1:8">
+      <c r="A18">
+        <v>0</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>2.806866653261738</v>
       </c>
       <c r="C18">
-        <v>2.806866653261738</v>
+        <v>3.851290978801663E-05</v>
       </c>
       <c r="D18">
-        <v>3.851290978801663E-05</v>
+        <v>6.508517916319899E-06</v>
       </c>
       <c r="E18">
-        <v>6.508517916319899E-06</v>
+        <v>0.0006597198987789692</v>
       </c>
       <c r="F18">
-        <v>0.0006597198987789692</v>
+        <v>1.478696289462293</v>
       </c>
       <c r="G18">
-        <v>1.478696289462293</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
         <v>15.64585011852666</v>
       </c>
     </row>
